--- a/resultados/teste_rapido_parametros_V1.xlsx
+++ b/resultados/teste_rapido_parametros_V1.xlsx
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -527,10 +527,10 @@
         <v>1.0275</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2482969760894775</v>
+        <v>0.7611004114151001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003007173538208008</v>
+        <v>0.1552327871322632</v>
       </c>
     </row>
     <row r="3">
@@ -549,25 +549,25 @@
         <v>0.7</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>10250</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>10250</v>
+        <v>10300</v>
       </c>
       <c r="I3" t="n">
         <v>1.025</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1763310432434082</v>
+        <v>0.222730278968811</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03339862823486328</v>
+        <v>0.05302798748016357</v>
       </c>
     </row>
     <row r="4">
@@ -583,10 +583,10 @@
         <v>0.15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>10250</v>
@@ -601,10 +601,10 @@
         <v>1.025</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4277734756469727</v>
+        <v>0.1823258399963379</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1108686923980713</v>
+        <v>0.07097268104553223</v>
       </c>
     </row>
     <row r="5">
@@ -617,13 +617,13 @@
         <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>10225</v>
@@ -638,10 +638,10 @@
         <v>1.0225</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2546744346618652</v>
+        <v>0.2500215768814087</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03356432914733887</v>
+        <v>0.03735649585723877</v>
       </c>
     </row>
     <row r="6">
@@ -654,13 +654,13 @@
         <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>10225</v>
@@ -675,10 +675,10 @@
         <v>1.0225</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3777022361755371</v>
+        <v>0.2201708555221558</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0445868968963623</v>
+        <v>0.004680275917053223</v>
       </c>
     </row>
     <row r="7">
@@ -691,31 +691,31 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>10200</v>
+        <v>10225</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>10200</v>
+        <v>10250</v>
       </c>
       <c r="I7" t="n">
-        <v>1.02</v>
+        <v>1.0225</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2133870124816895</v>
+        <v>0.2058112621307373</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0006687641143798828</v>
+        <v>0.003435134887695312</v>
       </c>
     </row>
     <row r="8">
@@ -725,16 +725,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D8" t="n">
         <v>0.7</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>10200</v>
@@ -749,10 +749,10 @@
         <v>1.02</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1937659978866577</v>
+        <v>0.2721437215805054</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03123748302459717</v>
+        <v>0.1671603918075562</v>
       </c>
     </row>
     <row r="9">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -777,19 +777,19 @@
         <v>10200</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>10200</v>
+        <v>10250</v>
       </c>
       <c r="I9" t="n">
         <v>1.02</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1447654962539673</v>
+        <v>0.3008333444595337</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03871476650238037</v>
+        <v>0.04764878749847412</v>
       </c>
     </row>
     <row r="10">
@@ -823,10 +823,10 @@
         <v>1.02</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3521099090576172</v>
+        <v>0.2359632253646851</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01642775535583496</v>
+        <v>0.03771507740020752</v>
       </c>
     </row>
     <row r="11">
@@ -839,31 +839,31 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D11" t="n">
         <v>0.8</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>10200</v>
       </c>
       <c r="G11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>10250</v>
+        <v>10200</v>
       </c>
       <c r="I11" t="n">
         <v>1.02</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2743207216262817</v>
+        <v>0.2019037008285522</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04955637454986572</v>
+        <v>0.00807034969329834</v>
       </c>
     </row>
     <row r="12">
@@ -876,7 +876,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D12" t="n">
         <v>0.8</v>
@@ -888,19 +888,19 @@
         <v>10200</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H12" t="n">
-        <v>10200</v>
+        <v>10250</v>
       </c>
       <c r="I12" t="n">
         <v>1.02</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3159301280975342</v>
+        <v>0.4983881711959839</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05544137954711914</v>
+        <v>0.1414419412612915</v>
       </c>
     </row>
     <row r="13">
@@ -919,25 +919,25 @@
         <v>0.8</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>10200</v>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>10250</v>
+        <v>10200</v>
       </c>
       <c r="I13" t="n">
         <v>1.02</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1648640632629395</v>
+        <v>0.2487392425537109</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04966878890991211</v>
+        <v>0.0738520622253418</v>
       </c>
     </row>
     <row r="14">
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
@@ -959,22 +959,22 @@
         <v>5</v>
       </c>
       <c r="F14" t="n">
+        <v>10175</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25</v>
+      </c>
+      <c r="H14" t="n">
         <v>10200</v>
       </c>
-      <c r="G14" t="n">
-        <v>100</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10300</v>
-      </c>
       <c r="I14" t="n">
-        <v>1.02</v>
+        <v>1.0175</v>
       </c>
       <c r="J14" t="n">
-        <v>0.277140736579895</v>
+        <v>0.1300698518753052</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03499901294708252</v>
+        <v>0.01279366016387939</v>
       </c>
     </row>
     <row r="15">
@@ -993,7 +993,7 @@
         <v>0.8</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>10175</v>
@@ -1008,10 +1008,10 @@
         <v>1.0175</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1201637983322144</v>
+        <v>0.3657156229019165</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04818427562713623</v>
+        <v>0.1029263734817505</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>0.1</v>
@@ -1033,22 +1033,22 @@
         <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>10150</v>
+        <v>10175</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H16" t="n">
         <v>10200</v>
       </c>
       <c r="I16" t="n">
-        <v>1.015</v>
+        <v>1.0175</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1432663202285767</v>
+        <v>0.2307666540145874</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02754557132720947</v>
+        <v>0.0005098581314086914</v>
       </c>
     </row>
     <row r="17">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>0.15</v>
@@ -1067,7 +1067,7 @@
         <v>0.7</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>10150</v>
@@ -1082,10 +1082,10 @@
         <v>1.015</v>
       </c>
       <c r="J17" t="n">
-        <v>0.76078200340271</v>
+        <v>0.2189949750900269</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3038022518157959</v>
+        <v>0.1032828092575073</v>
       </c>
     </row>
   </sheetData>
@@ -1171,13 +1171,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -1195,10 +1195,10 @@
         <v>1.0275</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2482969760894775</v>
+        <v>0.7611004114151001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003007173538208008</v>
+        <v>0.1552327871322632</v>
       </c>
     </row>
     <row r="3">
@@ -1217,25 +1217,25 @@
         <v>0.7</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>10250</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>10250</v>
+        <v>10300</v>
       </c>
       <c r="I3" t="n">
         <v>1.025</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1763310432434082</v>
+        <v>0.222730278968811</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03339862823486328</v>
+        <v>0.05302798748016357</v>
       </c>
     </row>
     <row r="4">
@@ -1251,10 +1251,10 @@
         <v>0.15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>10250</v>
@@ -1269,10 +1269,10 @@
         <v>1.025</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4277734756469727</v>
+        <v>0.1823258399963379</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1108686923980713</v>
+        <v>0.07097268104553223</v>
       </c>
     </row>
     <row r="5">
@@ -1285,13 +1285,13 @@
         <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>10225</v>
@@ -1306,10 +1306,10 @@
         <v>1.0225</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2546744346618652</v>
+        <v>0.2500215768814087</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03356432914733887</v>
+        <v>0.03735649585723877</v>
       </c>
     </row>
     <row r="6">
@@ -1322,13 +1322,13 @@
         <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>10225</v>
@@ -1343,10 +1343,10 @@
         <v>1.0225</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3777022361755371</v>
+        <v>0.2201708555221558</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0445868968963623</v>
+        <v>0.004680275917053223</v>
       </c>
     </row>
     <row r="7">
@@ -1359,31 +1359,31 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>10200</v>
+        <v>10225</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>10200</v>
+        <v>10250</v>
       </c>
       <c r="I7" t="n">
-        <v>1.02</v>
+        <v>1.0225</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2133870124816895</v>
+        <v>0.2058112621307373</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0006687641143798828</v>
+        <v>0.003435134887695312</v>
       </c>
     </row>
     <row r="8">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D8" t="n">
         <v>0.7</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>10200</v>
@@ -1417,10 +1417,10 @@
         <v>1.02</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1937659978866577</v>
+        <v>0.2721437215805054</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03123748302459717</v>
+        <v>0.1671603918075562</v>
       </c>
     </row>
     <row r="9">
@@ -1430,13 +1430,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1445,19 +1445,19 @@
         <v>10200</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>10200</v>
+        <v>10250</v>
       </c>
       <c r="I9" t="n">
         <v>1.02</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1447654962539673</v>
+        <v>0.3008333444595337</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03871476650238037</v>
+        <v>0.04764878749847412</v>
       </c>
     </row>
     <row r="10">
@@ -1491,10 +1491,10 @@
         <v>1.02</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3521099090576172</v>
+        <v>0.2359632253646851</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01642775535583496</v>
+        <v>0.03771507740020752</v>
       </c>
     </row>
     <row r="11">
@@ -1507,31 +1507,31 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D11" t="n">
         <v>0.8</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>10200</v>
       </c>
       <c r="G11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>10250</v>
+        <v>10200</v>
       </c>
       <c r="I11" t="n">
         <v>1.02</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2743207216262817</v>
+        <v>0.2019037008285522</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04955637454986572</v>
+        <v>0.00807034969329834</v>
       </c>
     </row>
   </sheetData>
@@ -1585,16 +1585,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>10215.625</v>
+        <v>10206.25</v>
       </c>
       <c r="C2" t="n">
-        <v>42.12545040030508</v>
+        <v>37.20119045714221</v>
       </c>
       <c r="D2" t="n">
         <v>10150</v>
       </c>
       <c r="E2" t="n">
-        <v>10275</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="3">
@@ -1602,16 +1602,16 @@
         <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>10196.875</v>
+        <v>10209.375</v>
       </c>
       <c r="C3" t="n">
-        <v>20.863074009907</v>
+        <v>29.69337347913558</v>
       </c>
       <c r="D3" t="n">
-        <v>10150</v>
+        <v>10175</v>
       </c>
       <c r="E3" t="n">
-        <v>10225</v>
+        <v>10275</v>
       </c>
     </row>
   </sheetData>
@@ -1665,16 +1665,16 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>10212.5</v>
+        <v>10206.25</v>
       </c>
       <c r="C2" t="n">
-        <v>37.79644730092266</v>
+        <v>25.8774584753384</v>
       </c>
       <c r="D2" t="n">
-        <v>10150</v>
+        <v>10175</v>
       </c>
       <c r="E2" t="n">
-        <v>10275</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="3">
@@ -1682,16 +1682,16 @@
         <v>0.15</v>
       </c>
       <c r="B3" t="n">
-        <v>10200</v>
+        <v>10209.375</v>
       </c>
       <c r="C3" t="n">
-        <v>29.88071523335984</v>
+        <v>39.9497452164234</v>
       </c>
       <c r="D3" t="n">
         <v>10150</v>
       </c>
       <c r="E3" t="n">
-        <v>10250</v>
+        <v>10275</v>
       </c>
     </row>
   </sheetData>
@@ -1745,16 +1745,16 @@
         <v>0.7</v>
       </c>
       <c r="B2" t="n">
-        <v>10206.25</v>
+        <v>10209.375</v>
       </c>
       <c r="C2" t="n">
-        <v>39.52847075210468</v>
+        <v>39.94974521642332</v>
       </c>
       <c r="D2" t="n">
         <v>10150</v>
       </c>
       <c r="E2" t="n">
-        <v>10250</v>
+        <v>10275</v>
       </c>
     </row>
     <row r="3">
@@ -1765,13 +1765,13 @@
         <v>10206.25</v>
       </c>
       <c r="C3" t="n">
-        <v>29.1241186255359</v>
+        <v>25.87745847533834</v>
       </c>
       <c r="D3" t="n">
         <v>10175</v>
       </c>
       <c r="E3" t="n">
-        <v>10275</v>
+        <v>10250</v>
       </c>
     </row>
   </sheetData>
@@ -1825,13 +1825,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>10206.25</v>
+        <v>10212.5</v>
       </c>
       <c r="C2" t="n">
-        <v>43.8137290942331</v>
+        <v>35.35533905932751</v>
       </c>
       <c r="D2" t="n">
-        <v>10150</v>
+        <v>10175</v>
       </c>
       <c r="E2" t="n">
         <v>10275</v>
@@ -1842,13 +1842,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>10206.25</v>
+        <v>10203.125</v>
       </c>
       <c r="C3" t="n">
-        <v>22.16013151069798</v>
+        <v>31.16058636895562</v>
       </c>
       <c r="D3" t="n">
-        <v>10175</v>
+        <v>10150</v>
       </c>
       <c r="E3" t="n">
         <v>10250</v>
@@ -1933,19 +1933,19 @@
         <v>10275</v>
       </c>
       <c r="D2" t="n">
-        <v>10206.25</v>
+        <v>10207.8125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.277829647064209</v>
+        <v>0.2841049209237099</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
